--- a/data/income_statement/2digits/size/56_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/56_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>56-Food and beverage service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>56-Food and beverage service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1106 +841,1251 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3789495.98798</v>
+        <v>3786796.4854</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4575860.33779</v>
+        <v>4589599.93863</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5695308.05162</v>
+        <v>5746357.11199</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6642528.3125</v>
+        <v>6738358.692280001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7941394.20529</v>
+        <v>7972639.47802</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>8956147.2829</v>
+        <v>9047427.99578</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>10546304.45159</v>
+        <v>10762055.77067</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>12118703.63103</v>
+        <v>12197148.42228</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>14693911.89853</v>
+        <v>14836564.14511</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>17456731.55654</v>
+        <v>17464232.50829</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>21192550.50704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>21577982.35422</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>20023862.902</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3668130.27938</v>
+        <v>3661969.38847</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4440502.53743</v>
+        <v>4450404.59724</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5544818.5543</v>
+        <v>5594942.425079999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6427172.270730001</v>
+        <v>6514432.58743</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7703187.903459999</v>
+        <v>7739401.029850001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>8708998.142440001</v>
+        <v>8791414.24798</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>10259323.0816</v>
+        <v>10443290.66001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>11754309.86025</v>
+        <v>11814192.53025</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>14258946.42424</v>
+        <v>14376403.26961</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>16956318.50157</v>
+        <v>16976882.41907</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>20489104.58253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>20882260.17338</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>19178120.695</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>46678.49637000001</v>
+        <v>47901.70045999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>43762.31105</v>
+        <v>43519.84705</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>47018.79103000001</v>
+        <v>46254.13570000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>69697.60605</v>
+        <v>71257.39406000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>55194.55771</v>
+        <v>52182.51475</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>53317.154</v>
+        <v>59067.49506</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>69940.74143000001</v>
+        <v>76449.98427</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>57955.27641</v>
+        <v>65063.26320999999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>86746.96062</v>
+        <v>91717.74275999999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>83666.65327</v>
+        <v>85886.72029000001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>156194.31581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>149934.12561</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>327346.782</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>74687.21223</v>
+        <v>76925.39646999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>91595.48931</v>
+        <v>95675.49434</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>103470.70629</v>
+        <v>105160.55121</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>145658.43572</v>
+        <v>152668.71079</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>183011.74412</v>
+        <v>181055.93342</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>193831.98646</v>
+        <v>196946.25274</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>217040.62856</v>
+        <v>242315.12639</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>306438.49437</v>
+        <v>317892.6288199999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>348218.51367</v>
+        <v>368443.13274</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>416746.4017</v>
+        <v>401463.3689299999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>547251.6087000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>545788.0552300001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>518395.425</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>12698.25055</v>
+        <v>12478.88729</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>12308.56356</v>
+        <v>11754.88024</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>17558.06127</v>
+        <v>19057.15025</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>16311.20411</v>
+        <v>20226.91127</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>27912.82848</v>
+        <v>31604.0991</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>24377.92986</v>
+        <v>25965.36359</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>27288.8372</v>
+        <v>28674.60513</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>33999.84831</v>
+        <v>35137.51055000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>35270.32726</v>
+        <v>35494.01426999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>49363.75076</v>
+        <v>44866.63941</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>64105.13931000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>67161.65462</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>273006.395</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>8769.71926</v>
+        <v>8505.172210000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>9139.91984</v>
+        <v>8586.85945</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>12982.9704</v>
+        <v>12378.043</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>12783.13322</v>
+        <v>13190.87314</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>21435.05683</v>
+        <v>21961.19425</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>18369.66222</v>
+        <v>18754.07133</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>20711.91657</v>
+        <v>21642.96682</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>23323.62691</v>
+        <v>24079.391</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>29428.56699</v>
+        <v>28668.19702</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>39252.57632</v>
+        <v>34484.02212</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>50248.60595999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>52444.86984000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>256762.53</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>3382.85401</v>
+        <v>3434.92255</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2040.0585</v>
+        <v>2035.53218</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2676.06934</v>
+        <v>4779.026220000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2183.75696</v>
+        <v>5693.35272</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1749.28286</v>
+        <v>4908.75984</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>4271.885740000001</v>
+        <v>5463.55258</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>4093.72703</v>
+        <v>4484.47662</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2423.53281</v>
+        <v>2698.61103</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3465.45724</v>
+        <v>4227.550029999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>5889.52531</v>
+        <v>5994.937120000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>6542.16295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7113.76408</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>10018.241</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>545.67728</v>
+        <v>538.7925300000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1128.58522</v>
+        <v>1132.48861</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1899.02153</v>
+        <v>1900.08103</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1344.31393</v>
+        <v>1342.68541</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4728.48879</v>
+        <v>4734.14501</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1736.3819</v>
+        <v>1747.73968</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2483.1936</v>
+        <v>2547.16169</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>8252.68859</v>
+        <v>8359.508519999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2376.30303</v>
+        <v>2598.26722</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>4221.64913</v>
+        <v>4387.68017</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>7314.370400000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>7603.020699999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6225.624</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3776797.73743</v>
+        <v>3774317.59811</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4563551.774230001</v>
+        <v>4577845.058389999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5677749.990350001</v>
+        <v>5727299.96174</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6626217.108390001</v>
+        <v>6718131.78101</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7913481.376809999</v>
+        <v>7941035.37892</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>8931769.35304</v>
+        <v>9021462.632189998</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10519015.61439</v>
+        <v>10733381.16554</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>12084703.78272</v>
+        <v>12162010.91173</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>14658641.57127</v>
+        <v>14801070.13084</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>17407367.80578</v>
+        <v>17419365.86888</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>21128445.36773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21510820.6996</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>19750856.507</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2933517.24321</v>
+        <v>2934686.12275</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3570492.05794</v>
+        <v>3579487.77979</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4473040.39013</v>
+        <v>4519201.89889</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5210478.984110001</v>
+        <v>5284280.7016</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6237787.30379</v>
+        <v>6264438.52238</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>7108942.710290001</v>
+        <v>7170963.43225</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>8393135.57229</v>
+        <v>8559647.622649999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>9751309.427829999</v>
+        <v>9814242.479020001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>11891278.74746</v>
+        <v>11975149.15897</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>14170373.15376</v>
+        <v>14190375.66792</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>17232283.83544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17578512.26362</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>16528169.983</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>796005.3308999999</v>
+        <v>795052.1195499999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>962060.9887100001</v>
+        <v>963385.3752100001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1158006.59953</v>
+        <v>1170673.28038</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1340091.01057</v>
+        <v>1369716.23003</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1610309.1666</v>
+        <v>1620762.90745</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1870682.96782</v>
+        <v>1890360.80079</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2170608.07336</v>
+        <v>2223862.86221</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2529597.64903</v>
+        <v>2570707.08562</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2940000.25797</v>
+        <v>2985280.44951</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3670980.06828</v>
+        <v>3692396.36097</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4369800.68074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4522755.311609999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4210572.686</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>702696.7951999999</v>
+        <v>695892.95091</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>821275.4459800001</v>
+        <v>811325.29175</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1105363.76148</v>
+        <v>1106848.17768</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1249977.48011</v>
+        <v>1248793.60922</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1444261.47839</v>
+        <v>1453251.8886</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1590040.42924</v>
+        <v>1603715.64161</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1860434.12654</v>
+        <v>1879200.76116</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2210858.88514</v>
+        <v>2207961.088109999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3056076.95174</v>
+        <v>3058822.49197</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3129940.98752</v>
+        <v>3142640.69973</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3945229.10725</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3984494.44814</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4704954.65</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1430869.13046</v>
+        <v>1437710.04661</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1782945.02216</v>
+        <v>1800854.27933</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2203417.99525</v>
+        <v>2235797.57931</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2611834.47213</v>
+        <v>2657395.75348</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3171617.42691</v>
+        <v>3178987.0637</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3624190.4241</v>
+        <v>3653134.32556</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4326494.01686</v>
+        <v>4413950.389640001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4975298.95104</v>
+        <v>4999706.98938</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5853175.1251</v>
+        <v>5886164.689599999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>7314511.93872</v>
+        <v>7303308.74614</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>8860010.884260001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>9011181.9596</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>7520598.113</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3945.98665</v>
+        <v>6031.005679999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4210.60109</v>
+        <v>3922.8335</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>6252.03387</v>
+        <v>5882.861519999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>8576.0213</v>
+        <v>8375.10887</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>11599.23189</v>
+        <v>11436.66263</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>24028.88913</v>
+        <v>23752.66429</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>35599.35553</v>
+        <v>42633.60964</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>35553.94261999999</v>
+        <v>35867.31591</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>42026.41265000001</v>
+        <v>44881.52789</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>54940.15923999999</v>
+        <v>52029.86108</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>57243.16319000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>60080.54427</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>92044.534</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>843280.49422</v>
+        <v>839631.47536</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>993059.71629</v>
+        <v>998357.2786</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1204709.60022</v>
+        <v>1208098.06285</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1415738.12428</v>
+        <v>1433851.07941</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1675694.07302</v>
+        <v>1676596.85654</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1822826.64275</v>
+        <v>1850499.19994</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2125880.0421</v>
+        <v>2173733.54289</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2333394.35489</v>
+        <v>2347768.43271</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2767362.82381</v>
+        <v>2825920.97187</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3236994.65202</v>
+        <v>3228990.20096</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3896161.53229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3932308.43598</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3222686.524</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>784289.1902599999</v>
+        <v>782171.9535800001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>915756.5684499999</v>
+        <v>915944.68973</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1138165.81145</v>
+        <v>1140305.72402</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1372711.78124</v>
+        <v>1390140.42625</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1670119.45857</v>
+        <v>1667759.47481</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1879201.75203</v>
+        <v>1890729.96209</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2241191.67224</v>
+        <v>2266338.23379</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2560469.03613</v>
+        <v>2548831.39033</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2865563.97124</v>
+        <v>2865960.030599999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3320234.49411</v>
+        <v>3302782.39735</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3936087.42733</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3960321.14105</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3489797.989</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2156.97432</v>
+        <v>2676.99452</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1648.18101</v>
+        <v>1684.11758</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1155.83637</v>
+        <v>1148.93736</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1261.18683</v>
+        <v>1259.81705</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1602.72532</v>
+        <v>1598.59574</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2778.5864</v>
+        <v>2779.76988</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2590.33561</v>
+        <v>2670.32961</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4422.074430000001</v>
+        <v>4224.18121</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>7320.22492</v>
+        <v>7320.224920000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>6844.10144</v>
+        <v>5105.49687</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>8017.255859999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8340.021059999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6690.069</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>155007.117</v>
+        <v>156650.41856</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>175008.838</v>
+        <v>176780.7549</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>210009.85401</v>
+        <v>211367.90996</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>258003.09383</v>
+        <v>265018.20771</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>331255.17458</v>
+        <v>333819.85716</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>379316.53429</v>
+        <v>381446.01317</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>446422.79466</v>
+        <v>455188.33094</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>514543.23726</v>
+        <v>519944.4494399999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>598916.8992000001</v>
+        <v>604302.6577000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>698978.54101</v>
+        <v>692339.7056399999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>866896.0643800001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>876143.72398</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>774583.351</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>627125.0989399999</v>
+        <v>622844.5405</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>739099.54944</v>
+        <v>737479.81725</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>927000.1210700001</v>
+        <v>927788.8767</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1113447.50058</v>
+        <v>1123862.40149</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1337261.55867</v>
+        <v>1332341.02191</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1497106.63134</v>
+        <v>1506504.17904</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1792178.54197</v>
+        <v>1808479.57324</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2041503.72444</v>
+        <v>2024662.75968</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2259326.84712</v>
+        <v>2254337.14798</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2614411.85166</v>
+        <v>2605337.19484</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3061174.10709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3075837.39601</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2708524.569</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>58991.30396</v>
+        <v>57459.52178</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>77303.14784000001</v>
+        <v>82412.58887000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>66543.78877</v>
+        <v>67792.33882999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>43026.34304</v>
+        <v>43710.65315999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>5574.614450000005</v>
+        <v>8837.381730000005</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-56375.10928</v>
+        <v>-40230.76215000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-115311.63014</v>
+        <v>-92604.69089999997</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-227074.68124</v>
+        <v>-201062.95762</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-98201.14743000001</v>
+        <v>-40039.05873</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-83239.84209000001</v>
+        <v>-73792.19639</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-39925.89504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-28012.70506999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-267111.465</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>38377.34513</v>
+        <v>44788.50173999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>46945.53555000001</v>
+        <v>48708.56475</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>46592.23626999999</v>
+        <v>223276.43381</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>55751.84967</v>
+        <v>259867.20459</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>75578.91411</v>
+        <v>257569.57354</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>78923.63354000001</v>
+        <v>325255.28672</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>93217.01933000001</v>
+        <v>384210.71061</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>109366.96588</v>
+        <v>448506.9795</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>134238.7444</v>
+        <v>164993.45754</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>248213.89614</v>
+        <v>221548.81487</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>276684.93151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>259729.26028</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>271558.026</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1059.18619</v>
+        <v>1870.66653</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2093.49852</v>
+        <v>4727.56802</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2221.70203</v>
+        <v>30248.47363</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1148.90176</v>
+        <v>29412.58461</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1238.78578</v>
+        <v>33696.49127</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>5408.244439999999</v>
+        <v>30258.17917</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1738.8539</v>
+        <v>36168.07569</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1168.98631</v>
+        <v>29725.13483</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>2260.98632</v>
+        <v>2449.93474</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>10704.32795</v>
+        <v>751.0568900000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>4788.340429999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1381.55254</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2307.836</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1128.97937</v>
+        <v>1074.28167</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>795.5580500000001</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>454.59711</v>
+        <v>373.6718700000001</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1224.08937</v>
+        <v>107.97887</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>3148.67099</v>
+        <v>1739.95696</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>2973.404849999999</v>
+        <v>904.5756799999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1358.40175</v>
+        <v>1170.52294</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>2676.93074</v>
+        <v>1198.52039</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>196.02255</v>
+        <v>190.6642</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>695.2276000000001</v>
+        <v>688.9878500000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>783.9853200000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>5933.40139</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>39018.785</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>9701.893820000001</v>
+        <v>9183.790219999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>9832.093000000001</v>
+        <v>7037.07035</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7905.730779999999</v>
+        <v>141639.25096</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>10687.57856</v>
+        <v>168117.48946</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>12155.57389</v>
+        <v>143232.25914</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>16916.40146</v>
+        <v>208381.72901</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>21158.04448</v>
+        <v>239532.03287</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>22293.44876</v>
+        <v>310606.55368</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>27893.45451</v>
+        <v>38370.82454</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>52905.13765</v>
+        <v>50301.87648000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>59119.72833</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>60596.81375</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>41179.676</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>648.404</v>
+        <v>831.35239</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>661.99107</v>
+        <v>676.92825</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>790.0838299999999</v>
+        <v>963.03876</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>963.5383399999999</v>
+        <v>676.2159799999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1607.63712</v>
+        <v>1601.89393</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1887.2318</v>
+        <v>1489.99548</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>984.1727099999999</v>
+        <v>1413.95749</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>625.55427</v>
+        <v>615.23626</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1573.98332</v>
+        <v>1409.59925</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1201.8531</v>
+        <v>1201.2973</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>935.3136500000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1823.2</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>237.20552</v>
+        <v>328.9392800000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>961.1096100000001</v>
+        <v>882.6571300000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1780.14097</v>
+        <v>1685.49401</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>470.58079</v>
+        <v>442.5731999999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>485.08952</v>
+        <v>2157.1457</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>667.8377800000001</v>
+        <v>855.9568700000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>486.36746</v>
+        <v>689.6970600000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4930.6195</v>
+        <v>1284.55288</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1199.90796</v>
+        <v>2079.67548</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>849.09075</v>
+        <v>903.72991</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3747.00574</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3639.52359</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4708.124</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>673.4601600000001</v>
+        <v>490.45375</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1390.68558</v>
+        <v>1387.27016</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>566.86575</v>
+        <v>514.37663</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>695.44868</v>
+        <v>471.25414</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>603.74581</v>
+        <v>469.5155</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1162.9553</v>
+        <v>666.3509399999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1498.71645</v>
+        <v>1485.59757</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1049.9888</v>
+        <v>816.0906799999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1618.77402</v>
+        <v>1721.96624</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2131.79197</v>
+        <v>9247.604289999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>7315.8114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>7293.79099</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>5633.67</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>6200.8533</v>
+        <v>15716.91104</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>6213.603539999999</v>
+        <v>6492.845480000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>7530.741289999999</v>
+        <v>7667.24579</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>5737.2218</v>
+        <v>7527.72644</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>10168.58889</v>
+        <v>9955.37061</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8299.22004</v>
+        <v>9981.116900000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>17722.35054</v>
+        <v>22393.01385</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>15875.54181</v>
+        <v>18324.14612</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>24952.21222</v>
+        <v>35758.69927</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>99804.81848</v>
+        <v>89885.38826000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>50755.29730999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>41619.16006</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>45248.208</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>158.95385</v>
@@ -2048,7 +2094,7 @@
         <v>74.82805999999999</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>94.60664999999999</v>
+        <v>16.29315</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>237.30679</v>
@@ -2057,10 +2103,10 @@
         <v>154.18331</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>264.49429</v>
+        <v>494.9537599999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>211.24637</v>
+        <v>257.642</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>14.22288</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>7.210109999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>161.963</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>110.20476</v>
@@ -2096,13 +2147,13 @@
         <v>623.26923</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>773.4521099999999</v>
+        <v>767.68129</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>380.13674</v>
+        <v>313.21583</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>519.5910700000001</v>
+        <v>367.0162800000001</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>433.57985</v>
@@ -2113,269 +2164,304 @@
       <c r="M34" s="48" t="n">
         <v>10.2241</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>18458.20416</v>
+        <v>15022.94825</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>24248.82002</v>
+        <v>25960.49115</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>25152.45409</v>
+        <v>40073.27524</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>34367.28821</v>
+        <v>52654.17973</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>45393.36957</v>
+        <v>63939.48789</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>40570.39147</v>
+        <v>71454.74762000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>47678.72893</v>
+        <v>80786.95531</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>60212.08173999999</v>
+        <v>85555.5055</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>74098.71084</v>
+        <v>82567.40115999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>79704.63449</v>
+        <v>68351.85974</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>149222.01512</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>138312.2701</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>131476.564</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>20154.57668</v>
+        <v>30062.98334</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>27074.64708</v>
+        <v>25992.43562</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>31905.27443</v>
+        <v>155297.37589</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>34679.38591</v>
+        <v>174145.04505</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>46525.4298</v>
+        <v>182451.65919</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>35623.79359</v>
+        <v>235136.80602</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>45634.82922</v>
+        <v>254954.17328</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>49598.88589</v>
+        <v>300247.12233</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>72799.64234999999</v>
+        <v>92598.77458999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>161166.50175</v>
+        <v>125033.95545</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>205424.17544</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>135483.67859</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>134792.588</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>4966.430560000001</v>
+        <v>4798.689</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>6751.814780000001</v>
+        <v>6758.96972</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>8056.78383</v>
+        <v>8056.30685</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>10603.15504</v>
+        <v>10561.0601</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>11600.95141</v>
+        <v>12077.01983</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>13136.94695</v>
+        <v>13010.93813</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>15932.34009</v>
+        <v>16231.13769</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>17511.51065</v>
+        <v>17131.16057</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>20809.22015</v>
+        <v>20142.91499</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>26119.74003</v>
+        <v>26010.94967</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>32327.21324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>32711.90962</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>32960.786</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2501.41426</v>
+        <v>4612.52484</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>6644.95362</v>
+        <v>7037.264459999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3846.83455</v>
+        <v>4067.88778</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>8385.488859999999</v>
+        <v>4340.17823</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2387.64371</v>
+        <v>4529.34788</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3955.4526</v>
+        <v>3972.96274</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>3195.6531</v>
+        <v>5259.11946</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5969.16985</v>
+        <v>6152.997670000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5564.19308</v>
+        <v>6287.05646</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>6287.43217</v>
+        <v>4664.088360000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>7256.82352</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>6084.28459</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3458.177</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>216.69179</v>
+        <v>727.4168899999999</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>180.49427</v>
+        <v>180.58432</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>102.23994</v>
+        <v>99.4884</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>341.83418</v>
+        <v>218.15771</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>253.04932</v>
+        <v>245.44921</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>337.77161</v>
+        <v>337.91512</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>520.26732</v>
+        <v>692.46986</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>373.22544</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>113.31451</v>
+        <v>74.60004999999998</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>225.58127</v>
+        <v>211.16148</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>22.12915</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>119.14489</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>192.387</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>5483.58311</v>
+        <v>14510.67138</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>4849.286</v>
+        <v>5304.75621</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>9500.131089999999</v>
+        <v>10100.75476</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5433.48295</v>
+        <v>6385.21143</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>11908.84457</v>
+        <v>16726.82169</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6286.50336</v>
+        <v>30587.37531</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>15215.71916</v>
+        <v>22103.553</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>11224.96148</v>
+        <v>15651.29383</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>25318.6829</v>
+        <v>37066.01834</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>102610.11788</v>
+        <v>72312.66957</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>101722.11883</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>36800.79629999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>39757.257</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>31.41712</v>
+        <v>31.26372</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>4.37029</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>78.69586</v>
+        <v>78.38616</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>431.7721</v>
+        <v>431.3607</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>124.40315</v>
+        <v>124.35208</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>250.68015</v>
+        <v>293.1761</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>297.5650899999999</v>
+        <v>557.1059</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>251.85517</v>
+        <v>1951.16977</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>10.67486</v>
@@ -2386,20 +2472,25 @@
       <c r="M41" s="48" t="n">
         <v>10.42749</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>333.929</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>1423.38884</v>
+        <v>4.65937</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>1331.54488</v>
+        <v>0.5211699999999999</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>1337.71728</v>
+        <v>6.693569999999999</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>46.36917</v>
@@ -2411,607 +2502,685 @@
         <v>155.92048</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>204.2799</v>
+        <v>185.64142</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>171.23512</v>
+        <v>170.31999</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>184.60369</v>
+        <v>147.55686</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0.21275</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>893.02412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>70.64147</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>1266.553</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>5531.651</v>
+        <v>5377.758140000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>7312.183239999999</v>
+        <v>6705.969450000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8982.871879999999</v>
+        <v>132887.85837</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>9437.28361</v>
+        <v>152162.70771</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>20161.87707</v>
+        <v>148660.00793</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>11500.51844</v>
+        <v>186778.51814</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>10269.00456</v>
+        <v>209925.14595</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>14096.92818</v>
+        <v>258816.95506</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>20798.95316</v>
+        <v>28869.95303</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>25911.85718</v>
+        <v>21823.31315</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>63192.43909000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>59686.47423</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>56823.499</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>46436.06451</v>
+        <v>48803.25988</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>44427.87233000001</v>
+        <v>47103.13188</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>55139.48538</v>
+        <v>59071.4507</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>77238.35956</v>
+        <v>88314.36864</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>87396.44537999999</v>
+        <v>91360.00821000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>107056.37858</v>
+        <v>123765.58491</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>141301.8798</v>
+        <v>152530.44507</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>165890.38448</v>
+        <v>179403.35983</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>204494.85579</v>
+        <v>223919.70836</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>309833.97929</v>
+        <v>298298.50601</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>351319.2690099999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>341141.9711</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>298905.167</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>43424.48892</v>
+        <v>46293.02992</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>42148.04498000001</v>
+        <v>42536.7447</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>52227.29084</v>
+        <v>54607.05919</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>73632.99893</v>
+        <v>77874.25259</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>82236.83078999999</v>
+        <v>85208.84421</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>101086.84675</v>
+        <v>116999.76035</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>133592.06472</v>
+        <v>142656.19706</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>158784.25498</v>
+        <v>172384.25109</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>195510.15697</v>
+        <v>213844.6871</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>298959.05872</v>
+        <v>285938.85158</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>339180.1319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>320611.56196</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>283297.469</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3011.57559</v>
+        <v>2510.22996</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2279.82735</v>
+        <v>4566.38718</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2912.19454</v>
+        <v>4464.391509999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3605.36063</v>
+        <v>10440.11605</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5159.614590000001</v>
+        <v>6151.164</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>5969.531830000001</v>
+        <v>6765.82456</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>7709.815080000001</v>
+        <v>9874.248009999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>7106.129500000001</v>
+        <v>7019.108740000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>8984.69882</v>
+        <v>10075.02126</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>10874.92057</v>
+        <v>12359.65443</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>12139.13711</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>20530.40914</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>15607.698</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>30778.0079</v>
+        <v>23381.7803</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>52746.16398</v>
+        <v>58025.58612000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>26091.26523</v>
+        <v>76699.94605000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-13139.55276</v>
+        <v>41118.44406000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-52768.34662</v>
+        <v>-7404.71213000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-120131.64791</v>
+        <v>-73877.86635999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-209031.31983</v>
+        <v>-115878.59864</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-333196.98573</v>
+        <v>-232206.46028</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-241256.90117</v>
+        <v>-191564.08414</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-306026.42699</v>
+        <v>-275575.84298</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-319984.40798</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-244909.09448</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-429251.194</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>20632.07774</v>
+        <v>20496.20572</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>31808.87033</v>
+        <v>32095.06884</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>42891.65837</v>
+        <v>39901.25564</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>46091.00518000001</v>
+        <v>45858.37059999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>57396.04923</v>
+        <v>59484.93992</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>77427.50979000001</v>
+        <v>63669.85275</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>80836.74566</v>
+        <v>87941.2209</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>108488.23055</v>
+        <v>106521.1324</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>122689.7313</v>
+        <v>125161.18857</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>151670.59533</v>
+        <v>179662.32197</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>275211.82086</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>184114.77164</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>207824.453</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>772.5596700000001</v>
+        <v>765.5720699999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>391.60347</v>
+        <v>390.01347</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>927.9333999999999</v>
+        <v>956.6666300000001</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>694.9231699999999</v>
+        <v>1673.50136</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>520.3044599999999</v>
+        <v>312.69222</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1093.29625</v>
+        <v>1396.27673</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1229.80104</v>
+        <v>1122.61882</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>783.99938</v>
+        <v>766.68535</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2223.4484</v>
+        <v>892.6607</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1714.8992</v>
+        <v>280.98673</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2300.21582</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2299.77553</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>19327.709</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>19859.51807</v>
+        <v>19730.63365</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>31417.26686</v>
+        <v>31705.05537</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>41963.72497</v>
+        <v>38944.58901</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>45396.08201000001</v>
+        <v>44184.86923999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>56875.74477</v>
+        <v>59172.2477</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>76334.21354</v>
+        <v>62273.57602</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>79606.94462000001</v>
+        <v>86818.60208</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>107704.23117</v>
+        <v>105754.44705</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>120466.2829</v>
+        <v>124268.52787</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>149955.69613</v>
+        <v>179381.33524</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>272911.6050399999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>181814.99611</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>188496.744</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>34716.22207</v>
+        <v>36157.87894</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>31579.21315</v>
+        <v>29833.49448</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>228793.99203</v>
+        <v>229945.43603</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>50632.34518</v>
+        <v>48120.63403</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>50614.88473</v>
+        <v>48214.51798</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>134331.1582</v>
+        <v>129455.39833</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>80118.70793999999</v>
+        <v>78954.12847999998</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>230202.60011</v>
+        <v>226077.99579</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>121178.61272</v>
+        <v>116931.40049</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>231363.43746</v>
+        <v>223642.95285</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>172457.40102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>143878.18916</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>135385.051</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>642.0809300000001</v>
+        <v>628.79339</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>553.8445300000001</v>
+        <v>514.95664</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>577.19537</v>
+        <v>402.83407</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>703.97081</v>
+        <v>1010.42293</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1353.12258</v>
+        <v>1358.02801</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3796.84791</v>
+        <v>4825.36113</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7038.07118</v>
+        <v>6260.69629</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2806.00515</v>
+        <v>2160.41771</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>5813.46263</v>
+        <v>5525.306449999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>6106.319149999999</v>
+        <v>6860.69881</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>7280.36224</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>6063.87499</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>7834.826</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3629.27598</v>
+        <v>3115.38711</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3400.1883</v>
+        <v>2501.3192</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3328.37063</v>
+        <v>2379.26825</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4682.71422</v>
+        <v>5803.954650000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>6300.92128</v>
+        <v>6357.03658</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>4567.11696</v>
+        <v>4215.75471</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>8485.05265</v>
+        <v>7155.79384</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4304.50988</v>
+        <v>3977.95434</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>7984.76077</v>
+        <v>7956.85787</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>7203.49504</v>
+        <v>5730.51065</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>8956.032439999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8973.348320000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>5374.7</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>30444.86516</v>
+        <v>32413.69844</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>27625.18032</v>
+        <v>26817.21864</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>224888.42603</v>
+        <v>227163.33371</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>45245.66014999999</v>
+        <v>41306.25645</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>42960.84087000001</v>
+        <v>40499.45339</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>125967.19333</v>
+        <v>120414.28249</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>64595.58411</v>
+        <v>65537.63835000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>223092.08508</v>
+        <v>219939.62374</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>107380.38932</v>
+        <v>103449.23617</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>218053.62327</v>
+        <v>211051.74339</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>156221.00634</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>128840.96585</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>122175.525</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>16693.86357</v>
+        <v>7720.10708</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>52975.82116000001</v>
+        <v>60287.16048000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-159811.06843</v>
+        <v>-113344.23434</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-17680.89276</v>
+        <v>38856.18063</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-45987.18212000001</v>
+        <v>3865.709810000003</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-177035.29632</v>
+        <v>-139663.41194</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-208313.28211</v>
+        <v>-106891.50622</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-454911.35529</v>
+        <v>-351763.32367</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-239745.78259</v>
+        <v>-183334.29606</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-385719.26912</v>
+        <v>-319556.47386</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-217229.98814</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-204672.512</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-356811.792</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>26622.84401</v>
+        <v>25831.6512</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>33804.00189</v>
+        <v>33780.80416</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>39723.34258</v>
+        <v>39426.22935</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>39838.81375</v>
+        <v>40693.99451</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>48458.00158</v>
+        <v>46962.23947</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>51043.30330000001</v>
+        <v>50600.12523999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>60250.06651999999</v>
+        <v>61961.93757</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>62966.15289</v>
+        <v>62630.08536</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>73073.96332000001</v>
+        <v>79504.12731</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>94245.26695999999</v>
+        <v>95734.14645999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>119484.36584</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>115295.13032</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>97620.80899999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-9928.980439999999</v>
+        <v>-18111.54412</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>19171.81927</v>
+        <v>26506.35632000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-199534.41101</v>
+        <v>-152770.46369</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-57519.70650999999</v>
+        <v>-1837.813879999995</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-94445.18369999999</v>
+        <v>-43096.52965999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-228078.59962</v>
+        <v>-190263.53718</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-268563.34863</v>
+        <v>-168853.44379</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-517877.50818</v>
+        <v>-414393.40903</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-312819.7459099999</v>
+        <v>-262838.42337</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-479964.53608</v>
+        <v>-415290.62032</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-336714.35398</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-319967.64232</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-454432.601</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3767</v>
+        <v>3569</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>4140</v>
+        <v>3908</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4658</v>
+        <v>4434</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5180</v>
+        <v>4901</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>5739</v>
+        <v>5381</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6351</v>
+        <v>5939</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6974</v>
+        <v>6484</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7527</v>
+        <v>6770</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>8194</v>
+        <v>7277</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>7433</v>
+        <v>7229</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>7596</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>7455</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7237</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>